--- a/Finflux Automation Excels/Client/4965-SUBMIT-MODAPP-APPROVE-UNDOAPPROVE-DISB-UNDODISB-DISBLessAmt-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4965-SUBMIT-MODAPP-APPROVE-UNDOAPPROVE-DISB-UNDODISB-DISBLessAmt-MakeRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
